--- a/ems/document/仓库报表/零星项目领用月报表.xlsx
+++ b/ems/document/仓库报表/零星项目领用月报表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15600" windowHeight="7320" tabRatio="763"/>
@@ -988,7 +988,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1466,11 +1466,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1544,6 +1549,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1578,6 +1584,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1753,7 +1760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1763,7 +1770,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="G53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I74" sqref="I74"/>
+      <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2717,7 +2724,7 @@
       <c r="K52" s="44"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1">
+    <row r="53" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="31" t="s">
         <v>19</v>
       </c>
@@ -2733,7 +2740,7 @@
       <c r="K53" s="42"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="54" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A54" s="34"/>
       <c r="B54" s="26" t="s">
         <v>68</v>
@@ -2757,7 +2764,7 @@
       <c r="K54" s="44"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="55" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A55" s="34"/>
       <c r="B55" s="26" t="s">
         <v>68</v>
@@ -2781,7 +2788,7 @@
       <c r="K55" s="44"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="56" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A56" s="34"/>
       <c r="B56" s="26" t="s">
         <v>77</v>
@@ -2805,7 +2812,7 @@
       <c r="K56" s="44"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="57" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A57" s="34"/>
       <c r="B57" s="26" t="s">
         <v>73</v>
@@ -2829,7 +2836,7 @@
       <c r="K57" s="44"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="58" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A58" s="34"/>
       <c r="B58" s="26" t="s">
         <v>73</v>
@@ -2853,7 +2860,7 @@
       <c r="K58" s="44"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="59" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A59" s="34"/>
       <c r="B59" s="26" t="s">
         <v>104</v>
@@ -2877,7 +2884,7 @@
       <c r="K59" s="44"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="60" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A60" s="34"/>
       <c r="B60" s="26" t="s">
         <v>77</v>
@@ -2901,7 +2908,7 @@
       <c r="K60" s="44"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="61" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A61" s="34"/>
       <c r="B61" s="27"/>
       <c r="C61" s="26"/>
@@ -2915,7 +2922,7 @@
       <c r="K61" s="44"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="62" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A62" s="34"/>
       <c r="B62" s="27"/>
       <c r="C62" s="26"/>
@@ -2929,7 +2936,7 @@
       <c r="K62" s="44"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="63" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A63" s="34"/>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
@@ -2943,7 +2950,7 @@
       <c r="K63" s="44"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="64" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A64" s="34"/>
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
@@ -5337,12 +5344,7 @@
     <protectedRange password="C66D" sqref="F160" name="区域1_13_3"/>
     <protectedRange password="C66D" sqref="F169 F179:F180" name="区域1_13_2_1"/>
   </protectedRanges>
-  <autoFilter ref="A5:L5">
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
-  </autoFilter>
+  <autoFilter ref="A5:L5"/>
   <mergeCells count="14">
     <mergeCell ref="A192:B192"/>
     <mergeCell ref="A194:B194"/>

--- a/ems/document/仓库报表/零星项目领用月报表.xlsx
+++ b/ems/document/仓库报表/零星项目领用月报表.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15600" windowHeight="7320" tabRatio="763"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="15600" windowHeight="7290" tabRatio="763" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目领用月报表" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目领用月报表!$A$5:$L$5</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="256">
   <si>
     <t>类别</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -984,6 +985,81 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>1：先获取领用的数据</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>2：获取借转领的数据</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>3：再获取仓库领的数据</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>select  a.store_id,a.installouttype_name,a.installouttype_content,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.name as type_name,c.name as subtype_name,c.name as prod_name,c.unit as prod_unit,c.style prod_style,f.name as brand_name,count(a.installoutlist_id) </t>
+  </si>
+  <si>
+    <t>from (</t>
+  </si>
+  <si>
+    <t>select a.store_id,b.ecode,c.name as installouttype_name,b.installouttype_content,b.id as installoutlist_id</t>
+  </si>
+  <si>
+    <t>from ems_installout a,ems_installoutlist b,ems_installouttype c</t>
+  </si>
+  <si>
+    <t>where a.id=b.installout_id and b.installouttype_id=c.id  and b.installoutlisttype='installout'</t>
+  </si>
+  <si>
+    <t>union all</t>
+  </si>
+  <si>
+    <t>select a.store_id,b.ecode,'借用' installouttype_name,'借变领' as installouttype_content,b.id as installoutlist_id</t>
+  </si>
+  <si>
+    <t>from ems_borrow a,ems_borrowlist b</t>
+  </si>
+  <si>
+    <t>where a.id=b.borrow_id and b.borrowlisttype='installout'</t>
+  </si>
+  <si>
+    <t>select a.str_out_id store_id,b.ecode,'调拨' installouttype_name,c.name as installouttype_content,b.id as installoutlist_id</t>
+  </si>
+  <si>
+    <t>from ems_adjust a,ems_adjustlist b,ems_store c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where a.id=b.adjust_id and a.str_in_id=c.id and a.adjusttype in ('installout','returnback') </t>
+  </si>
+  <si>
+    <t>) a</t>
+  </si>
+  <si>
+    <t>inner join ems_equipment b on a.ecode=b.ecode</t>
+  </si>
+  <si>
+    <t>inner join ems_equipmentprod c on b.prod_id=c.id</t>
+  </si>
+  <si>
+    <t>inner join ems_equipmentsubtype d on c.subtype_id=d.id</t>
+  </si>
+  <si>
+    <t>inner join ems_equipmenttype e on d.parent_id=e.id</t>
+  </si>
+  <si>
+    <t>inner join ems_brand f on c.brand_id=f.id</t>
+  </si>
+  <si>
+    <t>group by a.store_id,a.installouttype_name ,a.installouttype_content,</t>
+  </si>
+  <si>
+    <t>e.name ,c.name,c.name ,c.unit,c.style ,f.name</t>
+  </si>
 </sst>
 </file>
 
@@ -992,7 +1068,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1144,6 +1220,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1288,7 +1371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1457,6 +1540,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1766,8 +1852,8 @@
   </sheetPr>
   <dimension ref="A1:L195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G53" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
@@ -1878,7 +1964,7 @@
       <c r="K5" s="20"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1">
+    <row r="6" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="31" t="s">
         <v>9</v>
       </c>
@@ -1894,7 +1980,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A7" s="4"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -1908,7 +1994,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="8" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A8" s="34"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -1922,7 +2008,7 @@
       <c r="K8" s="23"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="9" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A9" s="34"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -1936,7 +2022,7 @@
       <c r="K9" s="23"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="10" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A10" s="34"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -2724,7 +2810,7 @@
       <c r="K52" s="44"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1">
       <c r="A53" s="31" t="s">
         <v>19</v>
       </c>
@@ -2740,7 +2826,7 @@
       <c r="K53" s="42"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+    <row r="54" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A54" s="34"/>
       <c r="B54" s="26" t="s">
         <v>68</v>
@@ -2764,7 +2850,7 @@
       <c r="K54" s="44"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+    <row r="55" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A55" s="34"/>
       <c r="B55" s="26" t="s">
         <v>68</v>
@@ -2788,7 +2874,7 @@
       <c r="K55" s="44"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+    <row r="56" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A56" s="34"/>
       <c r="B56" s="26" t="s">
         <v>77</v>
@@ -2812,7 +2898,7 @@
       <c r="K56" s="44"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+    <row r="57" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A57" s="34"/>
       <c r="B57" s="26" t="s">
         <v>73</v>
@@ -2836,7 +2922,7 @@
       <c r="K57" s="44"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+    <row r="58" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A58" s="34"/>
       <c r="B58" s="26" t="s">
         <v>73</v>
@@ -2860,7 +2946,7 @@
       <c r="K58" s="44"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+    <row r="59" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A59" s="34"/>
       <c r="B59" s="26" t="s">
         <v>104</v>
@@ -2884,7 +2970,7 @@
       <c r="K59" s="44"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+    <row r="60" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A60" s="34"/>
       <c r="B60" s="26" t="s">
         <v>77</v>
@@ -2908,7 +2994,7 @@
       <c r="K60" s="44"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+    <row r="61" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A61" s="34"/>
       <c r="B61" s="27"/>
       <c r="C61" s="26"/>
@@ -2922,7 +3008,7 @@
       <c r="K61" s="44"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+    <row r="62" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A62" s="34"/>
       <c r="B62" s="27"/>
       <c r="C62" s="26"/>
@@ -2936,7 +3022,7 @@
       <c r="K62" s="44"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+    <row r="63" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A63" s="34"/>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
@@ -2950,7 +3036,7 @@
       <c r="K63" s="44"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
+    <row r="64" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A64" s="34"/>
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
@@ -5368,4 +5454,145 @@
     <oddFooter>&amp;C&amp;8第 &amp;P 页，共 &amp;N 页</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="56" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>